--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Tom).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Tom).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TomC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TomC\Documents\Eclipse Workspace\ProsjektmedPTE\PTECalculator2015\08-Project-Management\Tidsregistrering\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Navn</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>syg</t>
+  </si>
+  <si>
+    <t>Requirements Specifier</t>
+  </si>
+  <si>
+    <t>Opprette visjonsdokument, Funksjonelle/Ikke-funksjonelle krav</t>
   </si>
 </sst>
 </file>
@@ -389,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +445,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>42059</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Tom).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Tom).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Navn</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Implementert OC1, og observer metoder til UC-1</t>
+  </si>
+  <si>
+    <t>2015/03/02</t>
+  </si>
+  <si>
+    <t>Bugfix og endringer I frame kode</t>
   </si>
 </sst>
 </file>
@@ -186,10 +192,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -293,6 +299,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/08-Project-Management/Tidsregistrering/Tidsregistrering (Tom).xlsx
+++ b/08-Project-Management/Tidsregistrering/Tidsregistrering (Tom).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Navn</t>
   </si>
@@ -66,6 +66,33 @@
   </si>
   <si>
     <t>Bugfix og endringer I frame kode</t>
+  </si>
+  <si>
+    <t>2015/03/03</t>
+  </si>
+  <si>
+    <t>2015/03/04</t>
+  </si>
+  <si>
+    <t>2015/03/05</t>
+  </si>
+  <si>
+    <t>2015/03/06</t>
+  </si>
+  <si>
+    <t>2015/03/09</t>
+  </si>
+  <si>
+    <t>Use case UC8, OC8, Git</t>
+  </si>
+  <si>
+    <t>2015/03/10</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>SSD OC7</t>
   </si>
 </sst>
 </file>
@@ -192,10 +219,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -299,7 +326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -311,6 +338,87 @@
       </c>
       <c r="D8" s="0" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
